--- a/biology/Botanique/Trichoscypha_bijuga/Trichoscypha_bijuga.xlsx
+++ b/biology/Botanique/Trichoscypha_bijuga/Trichoscypha_bijuga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichoscypha bijuga est une espèce de plantes à fleurs de la famille des Anacardiaceae et du genre Trichoscypha, observée en Afrique tropicale.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a d'abord été considérée comme circonscrite à l'île de Bioko (Guinée équatoriale) et au mont Cameroun,qui, lui fait face au Cameroun, mais par la suite elle a été observée également en Côte d'Ivoire, au Ghana, en Guinée et au Liberia[2]
-Dans le sud-ouest du Cameroun elle a été vue à Likomba (Tiko) – où elle est probablement éteinte – et à Mabeta-Moliwe, également dans le département du Fako, où de nombreux spécimens ont été collectés en 1992[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a d'abord été considérée comme circonscrite à l'île de Bioko (Guinée équatoriale) et au mont Cameroun,qui, lui fait face au Cameroun, mais par la suite elle a été observée également en Côte d'Ivoire, au Ghana, en Guinée et au Liberia
+Dans le sud-ouest du Cameroun elle a été vue à Likomba (Tiko) – où elle est probablement éteinte – et à Mabeta-Moliwe, également dans le département du Fako, où de nombreux spécimens ont été collectés en 1992.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve dans la forêt tropicale de basse altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve dans la forêt tropicale de basse altitude.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2000 elle était considérée comme en danger critique d'extinction (CR) sur la liste rouge de l'UICN, notamment du fait de la déforestation liée à la création de plantations. Cependant, depuis la découverte de nouvelles localisations, elle est classée comme « quasi menacée » (NT) en 2004[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2000 elle était considérée comme en danger critique d'extinction (CR) sur la liste rouge de l'UICN, notamment du fait de la déforestation liée à la création de plantations. Cependant, depuis la découverte de nouvelles localisations, elle est classée comme « quasi menacée » (NT) en 2004.
 </t>
         </is>
       </c>
